--- a/PlanilhaEV-MarcioDiogenes.xlsx
+++ b/PlanilhaEV-MarcioDiogenes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="VisaoEstrategica" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,19 @@
     <sheet name="Backlog" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Backlog!$A$4:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VisaoEstrategica!$B$6:$N$11</definedName>
-    <definedName name="Backlog_Item">Backlog!$D$5:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Backlog!$A$4:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VisaoEstrategica!$B$6:$N$10</definedName>
+    <definedName name="Backlog_Item">Backlog!$D$5:$D$8</definedName>
     <definedName name="Fibonacci">VisaoEstrategica!$AA$2:$AA$10</definedName>
-    <definedName name="TotalSizing">Backlog!$F$11</definedName>
-    <definedName name="ValueComponents">VisaoEstrategica!$B$7:$B$11</definedName>
+    <definedName name="TotalSizing">Backlog!$F$9</definedName>
+    <definedName name="ValueComponents">VisaoEstrategica!$B$7:$B$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Visão Estratégica</t>
   </si>
@@ -92,12 +92,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Visualizar por meio de grafo</t>
-  </si>
-  <si>
-    <t>Visualizar por meio de tabela</t>
-  </si>
-  <si>
     <t>Facilitar a visibilidade das interaçoes</t>
   </si>
   <si>
@@ -113,16 +107,16 @@
     <t>Verificar o andamento dos cursos</t>
   </si>
   <si>
-    <t>Gerar lista de interações por correio de mensagem</t>
-  </si>
-  <si>
-    <t>Gerar lista de interações por Bate Papo</t>
-  </si>
-  <si>
-    <t>Gerar lista de interações por Forun de discução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar usuario </t>
+    <t>Manter Dados</t>
+  </si>
+  <si>
+    <t>Gerar lista de interações</t>
+  </si>
+  <si>
+    <t>Gerar Visualização por meio de grafo</t>
+  </si>
+  <si>
+    <t>Interface de Usuario</t>
   </si>
 </sst>
 </file>
@@ -144,37 +138,44 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -404,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -518,12 +519,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -557,28 +552,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,47 +648,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$H$7:$H$11</c:f>
+              <c:f>VisaoEstrategica!$H$7:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>10.694896851248643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>53.583061889250814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>2.5515743756786105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.217194570135746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.547511312217193</c:v>
+                  <c:v>33.170466883821931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,11 +699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186172160"/>
-        <c:axId val="186174080"/>
+        <c:axId val="206864768"/>
+        <c:axId val="206866688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186172160"/>
+        <c:axId val="206864768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +727,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186174080"/>
+        <c:crossAx val="206866688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +735,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186174080"/>
+        <c:axId val="206866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +769,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186172160"/>
+        <c:crossAx val="206864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,47 +878,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$H$7:$H$11</c:f>
+              <c:f>VisaoEstrategica!$H$7:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>10.694896851248643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>53.583061889250814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>2.5515743756786105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.217194570135746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.547511312217193</c:v>
+                  <c:v>33.170466883821931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,47 +956,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$J$7:$J$11</c:f>
+              <c:f>VisaoEstrategica!$J$7:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.80821917808219</c:v>
+                  <c:v>14.545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.80821917808219</c:v>
+                  <c:v>38.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.80821917808219</c:v>
+                  <c:v>23.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.767123287671232</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.80821917808219</c:v>
+                  <c:v>23.636363636363637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186846592"/>
-        <c:axId val="186865152"/>
+        <c:axId val="206888320"/>
+        <c:axId val="203297920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186846592"/>
+        <c:axId val="206888320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1035,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186865152"/>
+        <c:crossAx val="203297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1043,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186865152"/>
+        <c:axId val="203297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1081,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186846592"/>
+        <c:crossAx val="206888320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,47 +1172,41 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$K$7:$K$11</c:f>
+              <c:f>VisaoEstrategica!$K$7:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.71568627450980393</c:v>
+                  <c:v>0.73527415852334421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71568627450980393</c:v>
+                  <c:v>1.4033659066232353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71568627450980393</c:v>
+                  <c:v>0.10795122358640274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2937405731523379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3784371736860426</c:v>
+                  <c:v>1.4033659066232356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,11 +1232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187078528"/>
-        <c:axId val="187080064"/>
+        <c:axId val="206837248"/>
+        <c:axId val="206838784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187078528"/>
+        <c:axId val="206837248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1260,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187080064"/>
+        <c:crossAx val="206838784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,7 +1268,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187080064"/>
+        <c:axId val="206838784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1306,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187078528"/>
+        <c:crossAx val="206837248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1458,47 +1411,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$L$7:$L$11</c:f>
+              <c:f>VisaoEstrategica!$L$7:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.745098039215685</c:v>
+                  <c:v>10.694896851248643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.490196078431371</c:v>
+                  <c:v>64.277958740499457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.235294117647058</c:v>
+                  <c:v>66.829533116178069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.962292609351429</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74.509803921568619</c:v>
+                  <c:v>43.865363735070574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,47 +1489,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>VisaoEstrategica!$B$7:$B$11</c:f>
+              <c:f>VisaoEstrategica!$B$7:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Gerar lista de interações por correio de mensagem</c:v>
+                  <c:v>Gerar lista de interações</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gerar lista de interações por Forun de discução</c:v>
+                  <c:v>Gerar Visualização por meio de grafo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gerar lista de interações por Bate Papo</c:v>
+                  <c:v>Manter Dados</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar por meio de grafo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Visualizar por meio de tabela</c:v>
+                  <c:v>Interface de Usuario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VisaoEstrategica!$M$7:$M$11</c:f>
+              <c:f>VisaoEstrategica!$M$7:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.80821917808219</c:v>
+                  <c:v>14.545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.61643835616438</c:v>
+                  <c:v>52.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.42465753424657</c:v>
+                  <c:v>76.363636363636374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.575342465753423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.383561643835606</c:v>
+                  <c:v>38.18181818181818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,11 +1540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187138432"/>
-        <c:axId val="187140352"/>
+        <c:axId val="203427840"/>
+        <c:axId val="203429760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187138432"/>
+        <c:axId val="203427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1568,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187140352"/>
+        <c:crossAx val="203429760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1576,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187140352"/>
+        <c:axId val="203429760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1614,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187138432"/>
+        <c:crossAx val="203427840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,7 +2045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2112,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2153,12 +2094,12 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="5"/>
       <c r="AA2" s="6">
         <v>1</v>
@@ -2170,23 +2111,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="AA3" s="6">
         <v>2</v>
       </c>
@@ -2208,10 +2149,10 @@
       <c r="F4" s="9">
         <v>21</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="AA4" s="6">
         <v>3</v>
       </c>
@@ -2239,12 +2180,12 @@
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="11" t="s">
         <v>5</v>
       </c>
@@ -2276,8 +2217,8 @@
     </row>
     <row r="7" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="38" t="s">
-        <v>28</v>
+      <c r="B7" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>8</v>
@@ -2286,38 +2227,38 @@
         <v>13</v>
       </c>
       <c r="E7" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:G12" si="0">SUMPRODUCT(C7:F7,$C$4:$F$4)</f>
-        <v>338</v>
+        <f t="shared" ref="G7:G10" si="0">SUMPRODUCT(C7:F7,$C$4:$F$4)</f>
+        <v>197</v>
       </c>
       <c r="H7" s="13">
-        <f>(G7/$G$13)*100</f>
-        <v>12.745098039215685</v>
+        <f>(G7/$G$11)*100</f>
+        <v>10.694896851248643</v>
       </c>
       <c r="I7" s="14">
         <f>Backlog!F5</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J7" s="13">
-        <f>I7/$I$13*100</f>
-        <v>17.80821917808219</v>
+        <f>I7/$I$11*100</f>
+        <v>14.545454545454545</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" ref="K7:K12" si="1">IF(J7=0,H7,H7/J7)</f>
-        <v>0.71568627450980393</v>
+        <f t="shared" ref="K7:K10" si="1">IF(J7=0,H7,H7/J7)</f>
+        <v>0.73527415852334421</v>
       </c>
       <c r="L7" s="13">
         <f>IFERROR(H7+L6,H7)</f>
-        <v>12.745098039215685</v>
+        <v>10.694896851248643</v>
       </c>
       <c r="M7" s="13">
         <f>IFERROR(J7+M6,J7)</f>
-        <v>17.80821917808219</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="N7" s="15">
         <v>2</v>
@@ -2327,81 +2268,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="38" t="s">
-        <v>30</v>
+      <c r="B8" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8" s="16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E8" s="16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F8" s="16">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>987</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H9" si="2">(G8/$G$13)*100</f>
-        <v>12.745098039215685</v>
+        <f t="shared" ref="H8:H9" si="2">(G8/$G$11)*100</f>
+        <v>53.583061889250814</v>
       </c>
       <c r="I8" s="14">
         <f>Backlog!F6</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" ref="J8:J9" si="3">I8/$I$13*100</f>
-        <v>17.80821917808219</v>
+        <f t="shared" ref="J8:J9" si="3">I8/$I$11*100</f>
+        <v>38.181818181818187</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>0.71568627450980393</v>
+        <v>1.4033659066232353</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" ref="L8:L9" si="4">IFERROR(H8+L7,H8)</f>
-        <v>25.490196078431371</v>
+        <v>64.277958740499457</v>
       </c>
       <c r="M8" s="15">
         <f t="shared" ref="M8:M9" si="5">IFERROR(J8+M7,J8)</f>
-        <v>35.61643835616438</v>
+        <v>52.727272727272734</v>
       </c>
       <c r="N8" s="15">
         <v>2</v>
       </c>
-      <c r="O8" s="42"/>
+      <c r="O8" s="40"/>
       <c r="AA8" s="23"/>
     </row>
-    <row r="9" spans="1:27" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="38" t="s">
-        <v>29</v>
+      <c r="B9" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E9" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>12.745098039215685</v>
+        <v>2.5515743756786105</v>
       </c>
       <c r="I9" s="14">
         <f>Backlog!F7</f>
@@ -2409,70 +2350,70 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>17.80821917808219</v>
+        <v>23.636363636363637</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>0.71568627450980393</v>
+        <v>0.10795122358640274</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>38.235294117647058</v>
+        <v>66.829533116178069</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="5"/>
-        <v>53.42465753424657</v>
+        <v>76.363636363636374</v>
       </c>
       <c r="N9" s="15">
         <v>2</v>
       </c>
-      <c r="O9" s="42"/>
+      <c r="O9" s="40"/>
       <c r="AA9" s="23"/>
     </row>
-    <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="38" t="s">
-        <v>21</v>
+      <c r="B10" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F10" s="16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>987</v>
+        <v>611</v>
       </c>
       <c r="H10" s="13">
-        <f>(G10/$G$13)*100</f>
-        <v>37.217194570135746</v>
+        <f>(G10/$G$11)*100</f>
+        <v>33.170466883821931</v>
       </c>
       <c r="I10" s="14">
         <f>Backlog!F8</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J10" s="13">
-        <f>I10/$I$13*100</f>
-        <v>28.767123287671232</v>
+        <f>I10/$I$11*100</f>
+        <v>23.636363636363637</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="1"/>
-        <v>1.2937405731523379</v>
+        <v>1.4033659066232356</v>
       </c>
       <c r="L10" s="13">
         <f>IFERROR(H10+L7,H10)</f>
-        <v>49.962292609351429</v>
+        <v>43.865363735070574</v>
       </c>
       <c r="M10" s="13">
         <f>IFERROR(J10+M7,J10)</f>
-        <v>46.575342465753423</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="N10" s="15">
         <v>6</v>
@@ -2483,142 +2424,48 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9">
-        <v>13</v>
-      </c>
-      <c r="D11" s="9">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9">
-        <v>13</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>651</v>
-      </c>
-      <c r="H11" s="13">
-        <f>(G11/$G$13)*100</f>
-        <v>24.547511312217193</v>
-      </c>
-      <c r="I11" s="14">
-        <f>Backlog!F9</f>
-        <v>13</v>
-      </c>
-      <c r="J11" s="13">
-        <f>I11/$I$13*100</f>
-        <v>17.80821917808219</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3784371736860426</v>
-      </c>
-      <c r="L11" s="13">
-        <f>IFERROR(H11+L10,H11)</f>
-        <v>74.509803921568619</v>
-      </c>
-      <c r="M11" s="13">
-        <f>IFERROR(J11+M10,J11)</f>
-        <v>64.383561643835606</v>
-      </c>
-      <c r="N11" s="15">
-        <v>7</v>
-      </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="54">
-        <v>8</v>
-      </c>
-      <c r="D12" s="54">
-        <v>2</v>
-      </c>
-      <c r="E12" s="54">
-        <v>2</v>
-      </c>
-      <c r="F12" s="55">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="H12" s="15">
-        <f>(G12/$G$13)*100</f>
-        <v>5.3544494720965305</v>
-      </c>
-      <c r="I12" s="14">
-        <f>Backlog!F10</f>
-        <v>3</v>
-      </c>
-      <c r="J12" s="15">
-        <f>I12/$I$13*100</f>
-        <v>4.10958904109589</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>1.3029160382101559</v>
-      </c>
-      <c r="L12" s="15">
-        <f>IFERROR(H12+L11,H12)</f>
-        <v>79.864253393665152</v>
-      </c>
-      <c r="M12" s="15">
-        <f>IFERROR(J12+M11,J12)</f>
-        <v>68.493150684931493</v>
-      </c>
-      <c r="N12" s="15">
-        <v>7</v>
-      </c>
-      <c r="O12" s="52"/>
-    </row>
-    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
-        <f>SUM(G7:G11)</f>
-        <v>2652</v>
-      </c>
-      <c r="H13" s="20">
-        <f>SUM(H7:H11)</f>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19">
+        <f>SUM(G7:G10)</f>
+        <v>1842</v>
+      </c>
+      <c r="H11" s="20">
+        <f>SUM(H7:H10)</f>
         <v>100</v>
       </c>
-      <c r="I13" s="21">
-        <f>SUM(I7:I11)</f>
-        <v>73</v>
-      </c>
-      <c r="J13" s="20">
-        <f>SUM(J7:J11)</f>
-        <v>100</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-    </row>
+      <c r="I11" s="21">
+        <f>SUM(I7:I10)</f>
+        <v>55</v>
+      </c>
+      <c r="J11" s="20">
+        <f>SUM(J7:J10)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D14" s="23"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="23"/>
+    </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="23"/>
-      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="23"/>
@@ -2677,21 +2524,15 @@
     <row r="35" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="23"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B6:N11"/>
+  <autoFilter ref="B6:N10"/>
   <mergeCells count="3">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from Fibonacci Serie" sqref="C4:F4 C7:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from Fibonacci Serie" sqref="C4:F4 C7:F10">
       <formula1>$AA$2:$AA$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -2805,13 +2646,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2831,18 +2672,18 @@
     <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,43 +2711,43 @@
       <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>3</v>
+      <c r="B5" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="34">
-        <f>IF(ISNA(VLOOKUP(B5,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B5,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
-        <v>0</v>
+        <f>IF(ISNA(VLOOKUP(B5,VisaoEstrategica!$B$7:$H$10,6,FALSE)),,VLOOKUP(B5,VisaoEstrategica!$B$7:$H$10,6,FALSE))</f>
+        <v>197</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
-      <c r="B6" s="39" t="s">
-        <v>3</v>
+      <c r="B6" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="38" t="s">
-        <v>30</v>
+      <c r="D6" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
-      <c r="B7" s="39" t="s">
-        <v>3</v>
+      <c r="B7" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="38" t="s">
-        <v>29</v>
+      <c r="D7" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="34">
@@ -2917,78 +2758,45 @@
       <c r="A8" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>3</v>
+      <c r="B8" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="34">
-        <f>IF(ISNA(VLOOKUP(B8,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B8,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>21</v>
+        <f>IF(ISNA(VLOOKUP(B8,VisaoEstrategica!$B$7:$H$10,6,FALSE)),,VLOOKUP(B8,VisaoEstrategica!$B$7:$H$10,6,FALSE))</f>
+        <v>611</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
-        <v>3</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="34">
-        <f>IF(ISNA(VLOOKUP(B9,VisaoEstrategica!$B$7:$H$11,6,FALSE)),,VLOOKUP(B9,VisaoEstrategica!$B$7:$H$11,6,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="34">
-        <v>3</v>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="26"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="34">
+        <f>SUBTOTAL(9,F5:F8)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="26"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="26"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="34">
-        <f>SUBTOTAL(9,F5:F10)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="26"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="26"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:F11"/>
+  <autoFilter ref="A4:F9"/>
   <mergeCells count="2">
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B3:C3"/>
@@ -2999,9 +2807,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="178" yWindow="298" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from range Value Components">
           <x14:formula1>
-            <xm:f>VisaoEstrategica!$B$7:$B$29</xm:f>
+            <xm:f>VisaoEstrategica!$B$7:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B10</xm:sqref>
+          <xm:sqref>B5:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
